--- a/Integration Services Project/mapping/datamapping-master.xlsx
+++ b/Integration Services Project/mapping/datamapping-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyoga\Desktop\STE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9529736-5D3C-484A-8184-146AB40DAB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB83E54D-D428-4269-87E2-499A02CB3777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6836ADEC-CE3C-43FE-A508-28DD9C35D719}"/>
   </bookViews>
@@ -25,9 +25,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'0007-ASSETATTRIBUTE'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTERDATA!$A$1:$N$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTERDATA!$A$1:$N$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +84,7 @@
     Additional column</t>
       </text>
     </comment>
-    <comment ref="C49" authorId="3" shapeId="0" xr:uid="{F1C359EF-EF0F-448D-9B94-3FD0B5E42EB3}">
+    <comment ref="C51" authorId="3" shapeId="0" xr:uid="{F1C359EF-EF0F-448D-9B94-3FD0B5E42EB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +92,7 @@
     Additional column</t>
       </text>
     </comment>
-    <comment ref="C63" authorId="4" shapeId="0" xr:uid="{E9E5E8A8-EF92-48B0-9016-262833961D45}">
+    <comment ref="C65" authorId="4" shapeId="0" xr:uid="{E9E5E8A8-EF92-48B0-9016-262833961D45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +100,7 @@
     Additional column</t>
       </text>
     </comment>
-    <comment ref="C71" authorId="5" shapeId="0" xr:uid="{38E84FD6-957C-42D1-AB59-74AD29FC8D83}">
+    <comment ref="C73" authorId="5" shapeId="0" xr:uid="{38E84FD6-957C-42D1-AB59-74AD29FC8D83}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +108,7 @@
     Additional column</t>
       </text>
     </comment>
-    <comment ref="C79" authorId="6" shapeId="0" xr:uid="{AE6C80F1-8822-4F27-B2AE-AA551BB0CA8A}">
+    <comment ref="C81" authorId="6" shapeId="0" xr:uid="{AE6C80F1-8822-4F27-B2AE-AA551BB0CA8A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -363,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="250">
   <si>
     <t>COSWIN TABLE/VIEW</t>
   </si>
@@ -841,33 +842,21 @@
     <t>99</t>
   </si>
   <si>
-    <t>See Tab 0007-ASSETATTRIBUTE</t>
-  </si>
-  <si>
     <t>COSWIN VIEW</t>
   </si>
   <si>
     <t>SOURCE COSWIN TABLE</t>
   </si>
   <si>
-    <t>V_STE_EQUIPMENT_FACILITY</t>
-  </si>
-  <si>
     <t>FM_CODE</t>
   </si>
   <si>
     <t>FM_DESCRIPTION</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>PK_FM_FACILITY</t>
   </si>
   <si>
-    <t>DISTINCT PK_FM_FACILITY, FM_CODE, FM_DESCRIPTION</t>
-  </si>
-  <si>
     <t>V_STE_USERS</t>
   </si>
   <si>
@@ -880,9 +869,6 @@
     <t>Name format in COSWIN is not standardized</t>
   </si>
   <si>
-    <t>V_STE_EQUIPMENT_METER</t>
-  </si>
-  <si>
     <t>MT_MTID</t>
   </si>
   <si>
@@ -907,17 +893,245 @@
     <t>DD_TEXT</t>
   </si>
   <si>
-    <t>PK_EQP_DEFR</t>
-  </si>
-  <si>
     <t>DD_TYPE</t>
+  </si>
+  <si>
+    <t>NEL</t>
+  </si>
+  <si>
+    <t>SBST</t>
+  </si>
+  <si>
+    <t>FM_FACILITY</t>
+  </si>
+  <si>
+    <t>WIN_USERS</t>
+  </si>
+  <si>
+    <t>PK_WIN_USERS</t>
+  </si>
+  <si>
+    <t>DIR_METER</t>
+  </si>
+  <si>
+    <t>EQP_HEAD</t>
+  </si>
+  <si>
+    <t>HASLD</t>
+  </si>
+  <si>
+    <t>"REPAIR"</t>
+  </si>
+  <si>
+    <t>"OPERATING" for normal location</t>
+  </si>
+  <si>
+    <t>TBD. Will get the data from SBST</t>
+  </si>
+  <si>
+    <t>"OPERATING"</t>
+  </si>
+  <si>
+    <t>Will be created as custome attr / custom col in table asset</t>
+  </si>
+  <si>
+    <t>"ACTIVE"</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>PK_EQP_HEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRE: 
+- Get seed value from maximodb.dbo.autokey
+- Set column to IDENTITY before insert, with start value from max value
+POST:
+- Remove column IDENTITY flag
+- Set max value to maximodb.dbo.autokey table
+</t>
+  </si>
+  <si>
+    <t>PK_DIR_DEFD</t>
+  </si>
+  <si>
+    <t>ROUTE</t>
+  </si>
+  <si>
+    <t>PARENTCHGSSTATUS</t>
+  </si>
+  <si>
+    <t>ROUTESID</t>
+  </si>
+  <si>
+    <t>LANGCODE</t>
+  </si>
+  <si>
+    <t>ROUTESTOPSBECOME</t>
+  </si>
+  <si>
+    <t>PK_EQP_TOPO</t>
+  </si>
+  <si>
+    <t>EQ_EQCD</t>
+  </si>
+  <si>
+    <t>EQ_DESC</t>
+  </si>
+  <si>
+    <t>V_STE_EQUIPMENT_GROUP</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>The serial number of the equipment</t>
+  </si>
+  <si>
+    <t>TS-SLNO</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>ITEMNUM</t>
+  </si>
+  <si>
+    <t>ROTATING</t>
+  </si>
+  <si>
+    <t>LOTTYPE</t>
+  </si>
+  <si>
+    <t>CAPITALIZED</t>
+  </si>
+  <si>
+    <t>OUTSIDE</t>
+  </si>
+  <si>
+    <t>SPAREPARTAUTOADD</t>
+  </si>
+  <si>
+    <t>INSPECTIONREQUIRED</t>
+  </si>
+  <si>
+    <t>ITEMSETID</t>
+  </si>
+  <si>
+    <t>CONDITIONENABLED</t>
+  </si>
+  <si>
+    <t>ITEMTYPE</t>
+  </si>
+  <si>
+    <t>PRORATE</t>
+  </si>
+  <si>
+    <t>ITEMID</t>
+  </si>
+  <si>
+    <t>ISKIT</t>
+  </si>
+  <si>
+    <t>ATTACHONISSUE</t>
+  </si>
+  <si>
+    <t>HARDRESISSUE</t>
+  </si>
+  <si>
+    <t>TAXEXEMPT</t>
+  </si>
+  <si>
+    <t>PLUSCININHOUSECAL</t>
+  </si>
+  <si>
+    <t>PLUSCISMTE</t>
+  </si>
+  <si>
+    <t>PLUSCSOLUTION</t>
+  </si>
+  <si>
+    <t>ISCREW</t>
+  </si>
+  <si>
+    <t>PLUSTFLUIDIND</t>
+  </si>
+  <si>
+    <t>PLUSTPOSREQ</t>
+  </si>
+  <si>
+    <t>PLUSTCOMP</t>
+  </si>
+  <si>
+    <t>PLUSTISTIRE</t>
+  </si>
+  <si>
+    <t>AUTOGENERATED</t>
+  </si>
+  <si>
+    <t>DIR_STOCK</t>
+  </si>
+  <si>
+    <t>ORDERUNIT</t>
+  </si>
+  <si>
+    <t>ISSUEUNIT</t>
+  </si>
+  <si>
+    <t>SL_ITCD</t>
+  </si>
+  <si>
+    <t>SL_ITDS</t>
+  </si>
+  <si>
+    <t>SL_UNIT</t>
+  </si>
+  <si>
+    <t>SL_GRCD</t>
+  </si>
+  <si>
+    <t>GROUPNAME</t>
+  </si>
+  <si>
+    <t>PK_DIR_STOCK</t>
+  </si>
+  <si>
+    <t>SL_STFL</t>
+  </si>
+  <si>
+    <t>48 = NON-STOCK; 49 = STOCK; 50 = OTHER</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>STE_CSWNGRCD</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Autogenerated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,12 +1159,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1024,7 +1232,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1120,6 +1328,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1452,16 +1663,16 @@
   <threadedComment ref="C37" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{DB6F0A43-771C-499E-B51A-CBFD9190DF48}">
     <text>Additional column</text>
   </threadedComment>
-  <threadedComment ref="C49" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{F1C359EF-EF0F-448D-9B94-3FD0B5E42EB3}">
+  <threadedComment ref="C51" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{F1C359EF-EF0F-448D-9B94-3FD0B5E42EB3}">
     <text>Additional column</text>
   </threadedComment>
-  <threadedComment ref="C63" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{E9E5E8A8-EF92-48B0-9016-262833961D45}">
+  <threadedComment ref="C65" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{E9E5E8A8-EF92-48B0-9016-262833961D45}">
     <text>Additional column</text>
   </threadedComment>
-  <threadedComment ref="C71" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{38E84FD6-957C-42D1-AB59-74AD29FC8D83}">
+  <threadedComment ref="C73" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{38E84FD6-957C-42D1-AB59-74AD29FC8D83}">
     <text>Additional column</text>
   </threadedComment>
-  <threadedComment ref="C79" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{AE6C80F1-8822-4F27-B2AE-AA551BB0CA8A}">
+  <threadedComment ref="C81" dT="2023-02-01T01:15:23.92" personId="{BD02E9B0-E65C-47DB-8292-2B1563D75C28}" id="{AE6C80F1-8822-4F27-B2AE-AA551BB0CA8A}">
     <text>Additional column</text>
   </threadedComment>
 </ThreadedComments>
@@ -1566,18 +1777,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133AE306-5E4F-4AFB-9E45-32094B854ACB}">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="27" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="10" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="2.140625" style="7" customWidth="1"/>
@@ -1610,13 +1821,13 @@
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>1</v>
@@ -1671,13 +1882,10 @@
         <v>24</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1697,13 +1905,10 @@
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1723,7 +1928,13 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>101</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1743,7 +1954,10 @@
         <v>220</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1763,7 +1977,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1773,8 +1990,8 @@
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
+      <c r="C8" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -1783,7 +2000,7 @@
         <v>101</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1828,10 +2045,7 @@
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1856,10 +2070,7 @@
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -1898,13 +2109,10 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1963,10 +2171,13 @@
         <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1988,8 +2199,8 @@
       <c r="G17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="27" t="s">
-        <v>36</v>
+      <c r="N17" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2009,10 +2220,13 @@
         <v>60</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2032,13 +2246,16 @@
         <v>30</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2078,7 +2295,7 @@
         <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2098,7 +2315,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2109,13 +2326,16 @@
         <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2135,7 +2355,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -2173,6 +2396,12 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
@@ -2230,10 +2459,13 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2253,13 +2485,13 @@
         <v>50</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>19</v>
+        <v>169</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2279,10 +2511,13 @@
         <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2342,10 +2577,10 @@
         <v>36</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>149</v>
       </c>
@@ -2401,7 +2636,10 @@
         <v>170</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2428,7 +2666,7 @@
         <v>150</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -2448,54 +2686,30 @@
         <v>150</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="7">
-        <v>40</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="7">
-        <v>200</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>150</v>
       </c>
@@ -2503,7 +2717,7 @@
         <v>102</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>10</v>
@@ -2512,10 +2726,19 @@
         <v>40</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N42" s="30" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2526,16 +2749,25 @@
         <v>102</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E43" s="7">
+        <v>200</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>155</v>
+        <v>104</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2546,16 +2778,19 @@
         <v>102</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2566,7 +2801,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>20</v>
@@ -2575,7 +2810,7 @@
         <v>101</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2586,24 +2821,16 @@
         <v>102</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="18">
-        <v>8</v>
-      </c>
-      <c r="F46" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="7">
+        <v>16</v>
+      </c>
       <c r="G46" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2614,27 +2841,19 @@
         <v>102</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="18">
-        <v>8</v>
-      </c>
-      <c r="F47" s="18"/>
+        <v>182</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="N47" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>150</v>
       </c>
@@ -2642,105 +2861,124 @@
         <v>102</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="18">
+        <v>8</v>
+      </c>
+      <c r="F48" s="18"/>
       <c r="G48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>150</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>44</v>
+      <c r="C49" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E49" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>150</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="C50" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G50" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="N50" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>150</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>96</v>
+      <c r="C51" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E51" s="18">
+        <v>10</v>
+      </c>
+      <c r="F51" s="18"/>
       <c r="G51" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>150</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>97</v>
+      <c r="C52" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>150</v>
       </c>
@@ -2748,7 +2986,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>20</v>
@@ -2757,80 +2995,70 @@
         <v>101</v>
       </c>
       <c r="N53" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="28"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="7">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="J55" s="8"/>
       <c r="N55" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="7">
-        <v>200</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="N56" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="28"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>151</v>
       </c>
@@ -2838,7 +3066,7 @@
         <v>48</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>10</v>
@@ -2852,10 +3080,10 @@
       <c r="H57" s="8"/>
       <c r="J57" s="8"/>
       <c r="N57" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>151</v>
       </c>
@@ -2863,13 +3091,13 @@
         <v>48</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="7">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>101</v>
@@ -2877,10 +3105,10 @@
       <c r="H58" s="8"/>
       <c r="J58" s="8"/>
       <c r="N58" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>151</v>
       </c>
@@ -2888,13 +3116,13 @@
         <v>48</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>101</v>
@@ -2902,10 +3130,10 @@
       <c r="H59" s="8"/>
       <c r="J59" s="8"/>
       <c r="N59" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>151</v>
       </c>
@@ -2913,26 +3141,24 @@
         <v>48</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="18">
-        <v>8</v>
-      </c>
-      <c r="F60" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="7">
+        <v>16</v>
+      </c>
       <c r="G60" s="7" t="s">
         <v>101</v>
       </c>
       <c r="H60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="M60" s="8"/>
       <c r="N60" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>151</v>
       </c>
@@ -2940,26 +3166,24 @@
         <v>48</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="18">
-        <v>8</v>
-      </c>
-      <c r="F61" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="7">
+        <v>36</v>
+      </c>
       <c r="G61" s="7" t="s">
         <v>101</v>
       </c>
       <c r="H61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="M61" s="8"/>
       <c r="N61" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>151</v>
       </c>
@@ -2967,130 +3191,138 @@
         <v>48</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="18">
+        <v>8</v>
+      </c>
+      <c r="F62" s="18"/>
       <c r="G62" s="7" t="s">
         <v>101</v>
       </c>
       <c r="H62" s="8"/>
       <c r="J62" s="8"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>44</v>
+      <c r="C63" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="E63" s="18">
+        <v>8</v>
+      </c>
       <c r="F63" s="18"/>
       <c r="G63" s="7" t="s">
         <v>101</v>
       </c>
       <c r="H63" s="8"/>
       <c r="J63" s="8"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="C64" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G64" s="7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="H64" s="8"/>
       <c r="J64" s="8"/>
+      <c r="N64" s="27" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="28"/>
+      <c r="A65" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="N65" s="27" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B67" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="7">
-        <v>20</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="7">
-        <v>200</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="28"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
@@ -3100,16 +3332,19 @@
         <v>109</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>101</v>
+        <v>171</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3120,19 +3355,22 @@
         <v>109</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E69" s="7">
+        <v>200</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>152</v>
       </c>
@@ -3140,16 +3378,19 @@
         <v>109</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E70" s="7">
+        <v>16</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N70" s="30" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3159,104 +3400,101 @@
       <c r="B71" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+      <c r="C71" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G71" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>152</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+      <c r="C72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G72" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="N72" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="28"/>
-    </row>
-    <row r="74" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>152</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N74" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="7">
-        <v>20</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="28"/>
+    </row>
+    <row r="76" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>152</v>
       </c>
@@ -3264,13 +3502,16 @@
         <v>111</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3281,22 +3522,19 @@
         <v>111</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -3307,19 +3545,13 @@
         <v>111</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -3327,21 +3559,25 @@
         <v>152</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="7">
+        <v>24</v>
+      </c>
       <c r="G79" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="N79" s="27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -3349,24 +3585,1072 @@
         <v>152</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="7">
+        <v>16</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N80" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C81" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="7" t="s">
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="7" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="28"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="7">
+        <v>16</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="7">
+        <v>200</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="7">
+        <v>16</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="7">
+        <v>16</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N88" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="N89" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="7">
+        <v>8</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="7">
+        <v>16</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="28"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="7">
+        <v>60</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="7">
+        <v>200</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="7">
+        <v>16</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="7">
+        <v>16</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="7">
+        <v>20</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N102" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="7">
+        <v>32</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N104" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N105" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N106" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N107" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="7">
+        <v>16</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N108" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N109" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="7">
+        <v>30</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N110" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N111" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="N112" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N113" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="7">
+        <v>8</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N114" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N115" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N116" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="7">
+        <v>32</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N118" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N119" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N120" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N121" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N122" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N123" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N124" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N125" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N126" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N127" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N128" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N130" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N110" xr:uid="{133AE306-5E4F-4AFB-9E45-32094B854ACB}"/>
+  <autoFilter ref="A1:N117" xr:uid="{133AE306-5E4F-4AFB-9E45-32094B854ACB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5983,11 +7267,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62265FB-3564-4415-9CE0-C74CBBF75954}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,6 +7330,15 @@
       <c r="C2" t="s">
         <v>52</v>
       </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -6066,6 +7359,15 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>176</v>
+      </c>
       <c r="H3">
         <v>2</v>
       </c>
@@ -6086,6 +7388,15 @@
       <c r="C4" t="s">
         <v>52</v>
       </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
       <c r="H4">
         <v>3</v>
       </c>
@@ -6106,6 +7417,15 @@
       <c r="C5" t="s">
         <v>52</v>
       </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
       <c r="H5">
         <v>4</v>
       </c>
@@ -6126,6 +7446,15 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
       <c r="H6">
         <v>5</v>
       </c>
@@ -6146,6 +7475,15 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
@@ -6166,6 +7504,15 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
       <c r="H8">
         <v>7</v>
       </c>
@@ -6186,6 +7533,15 @@
       <c r="C9" t="s">
         <v>52</v>
       </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>176</v>
+      </c>
       <c r="H9">
         <v>8</v>
       </c>
@@ -6206,6 +7562,15 @@
       <c r="C10" t="s">
         <v>52</v>
       </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
       <c r="H10">
         <v>9</v>
       </c>
@@ -6226,6 +7591,15 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>176</v>
+      </c>
       <c r="H11">
         <v>10</v>
       </c>
@@ -6246,6 +7620,15 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
       <c r="H12">
         <v>11</v>
       </c>
@@ -6266,6 +7649,15 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>176</v>
+      </c>
       <c r="H13">
         <v>12</v>
       </c>
@@ -6286,6 +7678,15 @@
       <c r="C14" t="s">
         <v>43</v>
       </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>176</v>
+      </c>
       <c r="H14">
         <v>13</v>
       </c>
@@ -6306,6 +7707,15 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>176</v>
+      </c>
       <c r="H15">
         <v>14</v>
       </c>
@@ -6326,6 +7736,15 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>176</v>
+      </c>
       <c r="H16">
         <v>15</v>
       </c>
@@ -6346,6 +7765,15 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>176</v>
+      </c>
       <c r="H17">
         <v>16</v>
       </c>
@@ -6366,6 +7794,15 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>176</v>
+      </c>
       <c r="H18">
         <v>17</v>
       </c>
@@ -6386,6 +7823,15 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
       <c r="H19">
         <v>18</v>
       </c>
@@ -6406,6 +7852,15 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>176</v>
+      </c>
       <c r="H20">
         <v>19</v>
       </c>
@@ -6426,6 +7881,15 @@
       <c r="C21" t="s">
         <v>43</v>
       </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>176</v>
+      </c>
       <c r="H21">
         <v>20</v>
       </c>
@@ -6433,6 +7897,35 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
         <v>92</v>
       </c>
     </row>
